--- a/DISEASE_INDEX/disease_index_0.xlsx
+++ b/DISEASE_INDEX/disease_index_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTTORATO\PROGETTI\PAULLILATINO\ROOTS_ANALYSIS\roots_olea\DISEASE_INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E36E2-4B19-4595-9238-17F97110A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C09C45-F0C0-41E9-9B1E-67E3C576814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="58">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Cod isolates</t>
   </si>
   <si>
     <t>10-01-2024</t>
@@ -117,49 +114,25 @@
     <t>19-04-2024</t>
   </si>
   <si>
-    <t>PH 462</t>
-  </si>
-  <si>
     <t>P. asparagi</t>
-  </si>
-  <si>
-    <t>PH 480</t>
   </si>
   <si>
     <t>P. oleae</t>
   </si>
   <si>
-    <t>PH 487</t>
-  </si>
-  <si>
     <t>P. syringae</t>
-  </si>
-  <si>
-    <t>PH 494</t>
   </si>
   <si>
     <t>P. rosacearum-like</t>
   </si>
   <si>
-    <t>PH 504</t>
-  </si>
-  <si>
     <t>P. crassamura</t>
-  </si>
-  <si>
-    <t>PH 505</t>
   </si>
   <si>
     <t>P. bilorbang</t>
   </si>
   <si>
-    <t>PH 531</t>
-  </si>
-  <si>
     <t>P. inundata</t>
-  </si>
-  <si>
-    <t>PH 518</t>
   </si>
   <si>
     <t>P. pseudocryptogea</t>
@@ -168,31 +141,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>PH 521</t>
-  </si>
-  <si>
     <t>P. kelmanii</t>
-  </si>
-  <si>
-    <t>PH 536</t>
   </si>
   <si>
     <t>P. oreophila-like</t>
   </si>
   <si>
-    <t>PH 537</t>
-  </si>
-  <si>
     <t>P. sansomeana</t>
   </si>
   <si>
-    <t>PH 541</t>
-  </si>
-  <si>
     <t>P. cryptogea</t>
-  </si>
-  <si>
-    <t>NC</t>
   </si>
   <si>
     <t>Control</t>
@@ -203,12 +161,51 @@
   <si>
     <t>Plant</t>
   </si>
+  <si>
+    <t>PH462</t>
+  </si>
+  <si>
+    <t>PH480</t>
+  </si>
+  <si>
+    <t>PH487</t>
+  </si>
+  <si>
+    <t>PH494</t>
+  </si>
+  <si>
+    <t>PH504</t>
+  </si>
+  <si>
+    <t>PH505</t>
+  </si>
+  <si>
+    <t>PH531</t>
+  </si>
+  <si>
+    <t>PH518</t>
+  </si>
+  <si>
+    <t>PH521</t>
+  </si>
+  <si>
+    <t>PH536</t>
+  </si>
+  <si>
+    <t>PH537</t>
+  </si>
+  <si>
+    <t>PH541</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -611,117 +608,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
     <col min="5" max="51" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -743,15 +741,15 @@
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -860,15 +858,15 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -977,15 +975,15 @@
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -1094,15 +1092,15 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1211,15 +1209,15 @@
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1328,15 +1326,15 @@
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1445,15 +1443,15 @@
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -1562,15 +1560,15 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -1679,15 +1677,15 @@
       <c r="AX9" s="6"/>
       <c r="AY9" s="6"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
@@ -1796,15 +1794,15 @@
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -1913,15 +1911,15 @@
       <c r="AX11" s="6"/>
       <c r="AY11" s="6"/>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5">
         <v>4</v>
@@ -2030,15 +2028,15 @@
       <c r="AX12" s="6"/>
       <c r="AY12" s="6"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -2147,15 +2145,15 @@
       <c r="AX13" s="6"/>
       <c r="AY13" s="6"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>6</v>
@@ -2264,15 +2262,15 @@
       <c r="AX14" s="6"/>
       <c r="AY14" s="6"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5">
         <v>7</v>
@@ -2381,15 +2379,15 @@
       <c r="AX15" s="6"/>
       <c r="AY15" s="6"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -2498,15 +2496,15 @@
       <c r="AX16" s="8"/>
       <c r="AY16" s="8"/>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -2615,15 +2613,15 @@
       <c r="AX17" s="8"/>
       <c r="AY17" s="8"/>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -2732,15 +2730,15 @@
       <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
         <v>4</v>
@@ -2849,15 +2847,15 @@
       <c r="AX19" s="8"/>
       <c r="AY19" s="8"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
@@ -2966,15 +2964,15 @@
       <c r="AX20" s="8"/>
       <c r="AY20" s="8"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7">
         <v>6</v>
@@ -3083,15 +3081,15 @@
       <c r="AX21" s="8"/>
       <c r="AY21" s="8"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
         <v>7</v>
@@ -3200,15 +3198,15 @@
       <c r="AX22" s="8"/>
       <c r="AY22" s="8"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -3317,15 +3315,15 @@
       <c r="AX23" s="10"/>
       <c r="AY23" s="10"/>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
@@ -3434,15 +3432,15 @@
       <c r="AX24" s="10"/>
       <c r="AY24" s="10"/>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="9">
         <v>3</v>
@@ -3551,15 +3549,15 @@
       <c r="AX25" s="10"/>
       <c r="AY25" s="10"/>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="9">
         <v>4</v>
@@ -3668,15 +3666,15 @@
       <c r="AX26" s="10"/>
       <c r="AY26" s="10"/>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9">
         <v>5</v>
@@ -3785,15 +3783,15 @@
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="9">
         <v>6</v>
@@ -3902,15 +3900,15 @@
       <c r="AX28" s="10"/>
       <c r="AY28" s="10"/>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9">
         <v>7</v>
@@ -4019,15 +4017,15 @@
       <c r="AX29" s="10"/>
       <c r="AY29" s="10"/>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -4136,15 +4134,15 @@
       <c r="AX30" s="12"/>
       <c r="AY30" s="12"/>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -4253,15 +4251,15 @@
       <c r="AX31" s="12"/>
       <c r="AY31" s="12"/>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11">
         <v>3</v>
@@ -4370,15 +4368,15 @@
       <c r="AX32" s="12"/>
       <c r="AY32" s="12"/>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11">
         <v>4</v>
@@ -4487,15 +4485,15 @@
       <c r="AX33" s="12"/>
       <c r="AY33" s="12"/>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11">
         <v>5</v>
@@ -4604,15 +4602,15 @@
       <c r="AX34" s="12"/>
       <c r="AY34" s="12"/>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D35" s="11">
         <v>6</v>
@@ -4721,15 +4719,15 @@
       <c r="AX35" s="12"/>
       <c r="AY35" s="12"/>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -4838,15 +4836,15 @@
       <c r="AX36" s="12"/>
       <c r="AY36" s="12"/>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -4955,15 +4953,15 @@
       <c r="AX37" s="14"/>
       <c r="AY37" s="14"/>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38" s="13">
         <v>2</v>
@@ -5072,15 +5070,15 @@
       <c r="AX38" s="14"/>
       <c r="AY38" s="14"/>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D39" s="13">
         <v>3</v>
@@ -5189,15 +5187,15 @@
       <c r="AX39" s="14"/>
       <c r="AY39" s="14"/>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D40" s="13">
         <v>4</v>
@@ -5306,15 +5304,15 @@
       <c r="AX40" s="14"/>
       <c r="AY40" s="14"/>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D41" s="13">
         <v>5</v>
@@ -5423,15 +5421,15 @@
       <c r="AX41" s="14"/>
       <c r="AY41" s="14"/>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D42" s="13">
         <v>6</v>
@@ -5540,15 +5538,15 @@
       <c r="AX42" s="14"/>
       <c r="AY42" s="14"/>
     </row>
-    <row r="43" spans="1:51">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D43" s="13">
         <v>7</v>
@@ -5657,15 +5655,15 @@
       <c r="AX43" s="14"/>
       <c r="AY43" s="14"/>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -5774,15 +5772,15 @@
       <c r="AX44" s="16"/>
       <c r="AY44" s="16"/>
     </row>
-    <row r="45" spans="1:51">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D45" s="15">
         <v>2</v>
@@ -5891,15 +5889,15 @@
       <c r="AX45" s="16"/>
       <c r="AY45" s="16"/>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D46" s="15">
         <v>3</v>
@@ -6008,15 +6006,15 @@
       <c r="AX46" s="16"/>
       <c r="AY46" s="16"/>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D47" s="15">
         <v>4</v>
@@ -6125,15 +6123,15 @@
       <c r="AX47" s="16"/>
       <c r="AY47" s="16"/>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48" s="15">
         <v>5</v>
@@ -6242,15 +6240,15 @@
       <c r="AX48" s="16"/>
       <c r="AY48" s="16"/>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>48</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D49" s="15">
         <v>6</v>
@@ -6359,15 +6357,15 @@
       <c r="AX49" s="16"/>
       <c r="AY49" s="16"/>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D50" s="15">
         <v>7</v>
@@ -6476,42 +6474,42 @@
       <c r="AX50" s="16"/>
       <c r="AY50" s="16"/>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17">
         <v>1</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M51" s="17">
         <v>0</v>
@@ -6593,42 +6591,42 @@
       <c r="AX51" s="19"/>
       <c r="AY51" s="19"/>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D52" s="17">
         <v>2</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M52" s="17">
         <v>0</v>
@@ -6710,42 +6708,42 @@
       <c r="AX52" s="19"/>
       <c r="AY52" s="19"/>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D53" s="17">
         <v>3</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M53" s="17">
         <v>0</v>
@@ -6827,42 +6825,42 @@
       <c r="AX53" s="19"/>
       <c r="AY53" s="19"/>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17">
         <v>4</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M54" s="17">
         <v>0</v>
@@ -6944,42 +6942,42 @@
       <c r="AX54" s="19"/>
       <c r="AY54" s="19"/>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D55" s="17">
         <v>5</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M55" s="17">
         <v>0</v>
@@ -7061,42 +7059,42 @@
       <c r="AX55" s="19"/>
       <c r="AY55" s="19"/>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17">
         <v>6</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M56" s="17">
         <v>0</v>
@@ -7178,42 +7176,42 @@
       <c r="AX56" s="19"/>
       <c r="AY56" s="19"/>
     </row>
-    <row r="57" spans="1:51">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17">
         <v>7</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M57" s="17">
         <v>0</v>
@@ -7295,42 +7293,42 @@
       <c r="AX57" s="19"/>
       <c r="AY57" s="19"/>
     </row>
-    <row r="58" spans="1:51">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>57</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D58" s="20">
         <v>1</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M58" s="20">
         <v>0</v>
@@ -7412,42 +7410,42 @@
       <c r="AX58" s="22"/>
       <c r="AY58" s="22"/>
     </row>
-    <row r="59" spans="1:51">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>58</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D59" s="20">
         <v>2</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M59" s="20">
         <v>0</v>
@@ -7529,42 +7527,42 @@
       <c r="AX59" s="22"/>
       <c r="AY59" s="22"/>
     </row>
-    <row r="60" spans="1:51">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>59</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D60" s="20">
         <v>3</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M60" s="20">
         <v>0</v>
@@ -7646,42 +7644,42 @@
       <c r="AX60" s="22"/>
       <c r="AY60" s="22"/>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>60</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D61" s="20">
         <v>4</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L61" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M61" s="20">
         <v>0</v>
@@ -7763,42 +7761,42 @@
       <c r="AX61" s="22"/>
       <c r="AY61" s="22"/>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D62" s="20">
         <v>5</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M62" s="20">
         <v>0</v>
@@ -7880,42 +7878,42 @@
       <c r="AX62" s="22"/>
       <c r="AY62" s="22"/>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>62</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D63" s="20">
         <v>6</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M63" s="20">
         <v>0</v>
@@ -7997,42 +7995,42 @@
       <c r="AX63" s="22"/>
       <c r="AY63" s="22"/>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D64" s="20">
         <v>7</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M64" s="20">
         <v>0</v>
@@ -8114,42 +8112,42 @@
       <c r="AX64" s="22"/>
       <c r="AY64" s="22"/>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D65" s="23">
         <v>1</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L65" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M65" s="23">
         <v>0</v>
@@ -8231,42 +8229,42 @@
       <c r="AX65" s="25"/>
       <c r="AY65" s="25"/>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D66" s="23">
         <v>2</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L66" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M66" s="23">
         <v>0</v>
@@ -8348,42 +8346,42 @@
       <c r="AX66" s="25"/>
       <c r="AY66" s="25"/>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D67" s="23">
         <v>3</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M67" s="23">
         <v>0</v>
@@ -8465,42 +8463,42 @@
       <c r="AX67" s="25"/>
       <c r="AY67" s="25"/>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D68" s="23">
         <v>4</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L68" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M68" s="23">
         <v>0</v>
@@ -8582,42 +8580,42 @@
       <c r="AX68" s="25"/>
       <c r="AY68" s="25"/>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D69" s="23">
         <v>5</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M69" s="23">
         <v>0</v>
@@ -8699,42 +8697,42 @@
       <c r="AX69" s="25"/>
       <c r="AY69" s="25"/>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D70" s="23">
         <v>6</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M70" s="23">
         <v>0</v>
@@ -8816,42 +8814,42 @@
       <c r="AX70" s="25"/>
       <c r="AY70" s="25"/>
     </row>
-    <row r="71" spans="1:51">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D71" s="23">
         <v>7</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M71" s="23">
         <v>0</v>
@@ -8933,42 +8931,42 @@
       <c r="AX71" s="25"/>
       <c r="AY71" s="25"/>
     </row>
-    <row r="72" spans="1:51">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>71</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D72" s="26">
         <v>1</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L72" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M72" s="26">
         <v>0</v>
@@ -9050,42 +9048,42 @@
       <c r="AX72" s="28"/>
       <c r="AY72" s="28"/>
     </row>
-    <row r="73" spans="1:51">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>72</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D73" s="26">
         <v>2</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L73" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M73" s="26">
         <v>0</v>
@@ -9167,42 +9165,42 @@
       <c r="AX73" s="28"/>
       <c r="AY73" s="28"/>
     </row>
-    <row r="74" spans="1:51">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>73</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D74" s="26">
         <v>3</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L74" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M74" s="26">
         <v>0</v>
@@ -9284,42 +9282,42 @@
       <c r="AX74" s="28"/>
       <c r="AY74" s="28"/>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>74</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D75" s="26">
         <v>4</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L75" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M75" s="26">
         <v>0</v>
@@ -9401,42 +9399,42 @@
       <c r="AX75" s="28"/>
       <c r="AY75" s="28"/>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A76" s="26">
         <v>75</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D76" s="26">
         <v>5</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L76" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M76" s="26">
         <v>0</v>
@@ -9518,42 +9516,42 @@
       <c r="AX76" s="28"/>
       <c r="AY76" s="28"/>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A77" s="26">
         <v>76</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D77" s="26">
         <v>6</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L77" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M77" s="26">
         <v>0</v>
@@ -9635,42 +9633,42 @@
       <c r="AX77" s="28"/>
       <c r="AY77" s="28"/>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>77</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D78" s="26">
         <v>7</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L78" s="27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M78" s="26">
         <v>0</v>
@@ -9752,42 +9750,42 @@
       <c r="AX78" s="28"/>
       <c r="AY78" s="28"/>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>78</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D79" s="29">
         <v>1</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L79" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M79" s="29">
         <v>0</v>
@@ -9869,42 +9867,42 @@
       <c r="AX79" s="31"/>
       <c r="AY79" s="31"/>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>79</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D80" s="29">
         <v>2</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L80" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M80" s="29">
         <v>0</v>
@@ -9986,42 +9984,42 @@
       <c r="AX80" s="31"/>
       <c r="AY80" s="31"/>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>80</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D81" s="29">
         <v>3</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L81" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M81" s="29">
         <v>0</v>
@@ -10103,42 +10101,42 @@
       <c r="AX81" s="31"/>
       <c r="AY81" s="31"/>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>81</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D82" s="29">
         <v>4</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M82" s="29">
         <v>0</v>
@@ -10220,42 +10218,42 @@
       <c r="AX82" s="31"/>
       <c r="AY82" s="31"/>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>82</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D83" s="29">
         <v>5</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L83" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M83" s="29">
         <v>0</v>
@@ -10337,42 +10335,42 @@
       <c r="AX83" s="31"/>
       <c r="AY83" s="31"/>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>83</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D84" s="29">
         <v>6</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L84" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M84" s="29">
         <v>0</v>
@@ -10454,42 +10452,42 @@
       <c r="AX84" s="31"/>
       <c r="AY84" s="31"/>
     </row>
-    <row r="85" spans="1:51">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>84</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D85" s="29">
         <v>7</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L85" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M85" s="29">
         <v>0</v>
@@ -10571,42 +10569,42 @@
       <c r="AX85" s="31"/>
       <c r="AY85" s="31"/>
     </row>
-    <row r="86" spans="1:51">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A86" s="32">
         <v>85</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D86" s="32">
         <v>1</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M86" s="34">
         <v>0</v>
@@ -10688,42 +10686,42 @@
       <c r="AX86" s="32"/>
       <c r="AY86" s="32"/>
     </row>
-    <row r="87" spans="1:51">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A87" s="32">
         <v>86</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D87" s="32">
         <v>2</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M87" s="34">
         <v>0</v>
@@ -10805,42 +10803,42 @@
       <c r="AX87" s="32"/>
       <c r="AY87" s="32"/>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A88" s="32">
         <v>87</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D88" s="32">
         <v>3</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M88" s="34">
         <v>0</v>
@@ -10922,42 +10920,42 @@
       <c r="AX88" s="32"/>
       <c r="AY88" s="32"/>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A89" s="32">
         <v>88</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D89" s="32">
         <v>4</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M89" s="34">
         <v>0</v>
@@ -11039,42 +11037,42 @@
       <c r="AX89" s="32"/>
       <c r="AY89" s="32"/>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A90" s="32">
         <v>89</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D90" s="32">
         <v>5</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M90" s="34">
         <v>0</v>
@@ -11156,42 +11154,42 @@
       <c r="AX90" s="32"/>
       <c r="AY90" s="32"/>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A91" s="32">
         <v>90</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D91" s="32">
         <v>6</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L91" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M91" s="34">
         <v>0</v>
@@ -11273,42 +11271,42 @@
       <c r="AX91" s="32"/>
       <c r="AY91" s="32"/>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A92" s="32">
         <v>91</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D92" s="32">
         <v>7</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M92" s="34">
         <v>0</v>
@@ -11390,2731 +11388,2731 @@
       <c r="AX92" s="32"/>
       <c r="AY92" s="32"/>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I93" s="35"/>
       <c r="L93" s="34"/>
       <c r="M93" s="34"/>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I94" s="35"/>
       <c r="L94" s="34"/>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I95" s="35"/>
     </row>
-    <row r="96" spans="1:51">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
       <c r="I96" s="35"/>
     </row>
-    <row r="97" spans="9:9">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="35"/>
     </row>
-    <row r="98" spans="9:9">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="35"/>
     </row>
-    <row r="99" spans="9:9">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="35"/>
     </row>
-    <row r="100" spans="9:9">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="35"/>
     </row>
-    <row r="101" spans="9:9">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="35"/>
     </row>
-    <row r="102" spans="9:9">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="9:9">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="35"/>
     </row>
-    <row r="104" spans="9:9">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="35"/>
     </row>
-    <row r="105" spans="9:9">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="35"/>
     </row>
-    <row r="106" spans="9:9">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="35"/>
     </row>
-    <row r="107" spans="9:9">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="35"/>
     </row>
-    <row r="108" spans="9:9">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="35"/>
     </row>
-    <row r="109" spans="9:9">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I109" s="35"/>
     </row>
-    <row r="110" spans="9:9">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I110" s="35"/>
     </row>
-    <row r="111" spans="9:9">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I111" s="35"/>
     </row>
-    <row r="112" spans="9:9">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I112" s="35"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I113" s="35"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I114" s="35"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I115" s="35"/>
     </row>
-    <row r="116" spans="9:9">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I116" s="35"/>
     </row>
-    <row r="117" spans="9:9">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I117" s="35"/>
     </row>
-    <row r="118" spans="9:9">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I118" s="35"/>
     </row>
-    <row r="119" spans="9:9">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I119" s="35"/>
     </row>
-    <row r="120" spans="9:9">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I120" s="35"/>
     </row>
-    <row r="121" spans="9:9">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I121" s="35"/>
     </row>
-    <row r="122" spans="9:9">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I122" s="35"/>
     </row>
-    <row r="123" spans="9:9">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I123" s="35"/>
     </row>
-    <row r="124" spans="9:9">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I124" s="35"/>
     </row>
-    <row r="125" spans="9:9">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I125" s="35"/>
     </row>
-    <row r="126" spans="9:9">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I126" s="35"/>
     </row>
-    <row r="127" spans="9:9">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I127" s="35"/>
     </row>
-    <row r="128" spans="9:9">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I128" s="35"/>
     </row>
-    <row r="129" spans="9:9">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I129" s="35"/>
     </row>
-    <row r="130" spans="9:9">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I130" s="35"/>
     </row>
-    <row r="131" spans="9:9">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I131" s="35"/>
     </row>
-    <row r="132" spans="9:9">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I132" s="35"/>
     </row>
-    <row r="133" spans="9:9">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I133" s="35"/>
     </row>
-    <row r="134" spans="9:9">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I134" s="35"/>
     </row>
-    <row r="135" spans="9:9">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I135" s="35"/>
     </row>
-    <row r="136" spans="9:9">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I136" s="35"/>
     </row>
-    <row r="137" spans="9:9">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I137" s="35"/>
     </row>
-    <row r="138" spans="9:9">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I138" s="35"/>
     </row>
-    <row r="139" spans="9:9">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I139" s="35"/>
     </row>
-    <row r="140" spans="9:9">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I140" s="35"/>
     </row>
-    <row r="141" spans="9:9">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I141" s="35"/>
     </row>
-    <row r="142" spans="9:9">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I142" s="35"/>
     </row>
-    <row r="143" spans="9:9">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I143" s="35"/>
     </row>
-    <row r="144" spans="9:9">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I144" s="35"/>
     </row>
-    <row r="145" spans="9:9">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I145" s="35"/>
     </row>
-    <row r="146" spans="9:9">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I146" s="35"/>
     </row>
-    <row r="147" spans="9:9">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I147" s="35"/>
     </row>
-    <row r="148" spans="9:9">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I148" s="35"/>
     </row>
-    <row r="149" spans="9:9">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I149" s="35"/>
     </row>
-    <row r="150" spans="9:9">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I150" s="35"/>
     </row>
-    <row r="151" spans="9:9">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I151" s="35"/>
     </row>
-    <row r="152" spans="9:9">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I152" s="35"/>
     </row>
-    <row r="153" spans="9:9">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I153" s="35"/>
     </row>
-    <row r="154" spans="9:9">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I154" s="35"/>
     </row>
-    <row r="155" spans="9:9">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I155" s="35"/>
     </row>
-    <row r="156" spans="9:9">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I156" s="35"/>
     </row>
-    <row r="157" spans="9:9">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I157" s="35"/>
     </row>
-    <row r="158" spans="9:9">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I158" s="35"/>
     </row>
-    <row r="159" spans="9:9">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I159" s="35"/>
     </row>
-    <row r="160" spans="9:9">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I160" s="35"/>
     </row>
-    <row r="161" spans="9:9">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I161" s="35"/>
     </row>
-    <row r="162" spans="9:9">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I162" s="35"/>
     </row>
-    <row r="163" spans="9:9">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I163" s="35"/>
     </row>
-    <row r="164" spans="9:9">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I164" s="35"/>
     </row>
-    <row r="165" spans="9:9">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I165" s="35"/>
     </row>
-    <row r="166" spans="9:9">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I166" s="35"/>
     </row>
-    <row r="167" spans="9:9">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I167" s="35"/>
     </row>
-    <row r="168" spans="9:9">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I168" s="35"/>
     </row>
-    <row r="169" spans="9:9">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I169" s="35"/>
     </row>
-    <row r="170" spans="9:9">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I170" s="35"/>
     </row>
-    <row r="171" spans="9:9">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I171" s="35"/>
     </row>
-    <row r="172" spans="9:9">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I172" s="35"/>
     </row>
-    <row r="173" spans="9:9">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I173" s="35"/>
     </row>
-    <row r="174" spans="9:9">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I174" s="35"/>
     </row>
-    <row r="175" spans="9:9">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I175" s="35"/>
     </row>
-    <row r="176" spans="9:9">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I176" s="35"/>
     </row>
-    <row r="177" spans="9:9">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I177" s="35"/>
     </row>
-    <row r="178" spans="9:9">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I178" s="35"/>
     </row>
-    <row r="179" spans="9:9">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I179" s="35"/>
     </row>
-    <row r="180" spans="9:9">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I180" s="35"/>
     </row>
-    <row r="181" spans="9:9">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I181" s="35"/>
     </row>
-    <row r="182" spans="9:9">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I182" s="35"/>
     </row>
-    <row r="183" spans="9:9">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I183" s="35"/>
     </row>
-    <row r="184" spans="9:9">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I184" s="35"/>
     </row>
-    <row r="185" spans="9:9">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I185" s="35"/>
     </row>
-    <row r="186" spans="9:9">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I186" s="35"/>
     </row>
-    <row r="187" spans="9:9">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I187" s="35"/>
     </row>
-    <row r="188" spans="9:9">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I188" s="35"/>
     </row>
-    <row r="189" spans="9:9">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I189" s="35"/>
     </row>
-    <row r="190" spans="9:9">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I190" s="35"/>
     </row>
-    <row r="191" spans="9:9">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I191" s="35"/>
     </row>
-    <row r="192" spans="9:9">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I192" s="35"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I193" s="35"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I194" s="35"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I195" s="35"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I196" s="35"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I197" s="35"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I198" s="35"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I199" s="35"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I200" s="35"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I201" s="35"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I202" s="35"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I203" s="35"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I204" s="35"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I205" s="35"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I206" s="35"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I207" s="35"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I208" s="35"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I209" s="35"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I210" s="35"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I211" s="35"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I212" s="35"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I213" s="35"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I214" s="35"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I215" s="35"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I216" s="35"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I217" s="35"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I218" s="35"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I219" s="35"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I220" s="35"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I221" s="35"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I222" s="35"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I223" s="35"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I224" s="35"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I225" s="35"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I226" s="35"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I227" s="35"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I228" s="35"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I229" s="35"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I230" s="35"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I231" s="35"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I232" s="35"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I233" s="35"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I234" s="35"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I235" s="35"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I236" s="35"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I237" s="35"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I238" s="35"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I239" s="35"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I240" s="35"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I241" s="35"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I242" s="35"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I243" s="35"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I244" s="35"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I245" s="35"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I246" s="35"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I247" s="35"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I248" s="35"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I249" s="35"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I250" s="35"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I251" s="35"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I252" s="35"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I253" s="35"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I254" s="35"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I255" s="35"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I256" s="35"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I257" s="35"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I258" s="35"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I259" s="35"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I260" s="35"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I261" s="35"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I262" s="35"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I263" s="35"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I264" s="35"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I265" s="35"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I266" s="35"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I267" s="35"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I268" s="35"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I269" s="35"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I270" s="35"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I271" s="35"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I272" s="35"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I273" s="35"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I274" s="35"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I275" s="35"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I276" s="35"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I277" s="35"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I278" s="35"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I279" s="35"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I280" s="35"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I281" s="35"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I282" s="35"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I283" s="35"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I284" s="35"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I285" s="35"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I286" s="35"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I287" s="35"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I288" s="35"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I289" s="35"/>
     </row>
-    <row r="290" spans="9:9">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I290" s="35"/>
     </row>
-    <row r="291" spans="9:9">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I291" s="35"/>
     </row>
-    <row r="292" spans="9:9">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I292" s="35"/>
     </row>
-    <row r="293" spans="9:9">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I293" s="35"/>
     </row>
-    <row r="294" spans="9:9">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I294" s="35"/>
     </row>
-    <row r="295" spans="9:9">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I295" s="35"/>
     </row>
-    <row r="296" spans="9:9">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I296" s="35"/>
     </row>
-    <row r="297" spans="9:9">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I297" s="35"/>
     </row>
-    <row r="298" spans="9:9">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I298" s="35"/>
     </row>
-    <row r="299" spans="9:9">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I299" s="35"/>
     </row>
-    <row r="300" spans="9:9">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I300" s="35"/>
     </row>
-    <row r="301" spans="9:9">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I301" s="35"/>
     </row>
-    <row r="302" spans="9:9">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I302" s="35"/>
     </row>
-    <row r="303" spans="9:9">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I303" s="35"/>
     </row>
-    <row r="304" spans="9:9">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I304" s="35"/>
     </row>
-    <row r="305" spans="9:9">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I305" s="35"/>
     </row>
-    <row r="306" spans="9:9">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I306" s="35"/>
     </row>
-    <row r="307" spans="9:9">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I307" s="35"/>
     </row>
-    <row r="308" spans="9:9">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I308" s="35"/>
     </row>
-    <row r="309" spans="9:9">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I309" s="35"/>
     </row>
-    <row r="310" spans="9:9">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I310" s="35"/>
     </row>
-    <row r="311" spans="9:9">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I311" s="35"/>
     </row>
-    <row r="312" spans="9:9">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I312" s="35"/>
     </row>
-    <row r="313" spans="9:9">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I313" s="35"/>
     </row>
-    <row r="314" spans="9:9">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I314" s="35"/>
     </row>
-    <row r="315" spans="9:9">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I315" s="35"/>
     </row>
-    <row r="316" spans="9:9">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I316" s="35"/>
     </row>
-    <row r="317" spans="9:9">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I317" s="35"/>
     </row>
-    <row r="318" spans="9:9">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I318" s="35"/>
     </row>
-    <row r="319" spans="9:9">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I319" s="35"/>
     </row>
-    <row r="320" spans="9:9">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I320" s="35"/>
     </row>
-    <row r="321" spans="9:9">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I321" s="35"/>
     </row>
-    <row r="322" spans="9:9">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I322" s="35"/>
     </row>
-    <row r="323" spans="9:9">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I323" s="35"/>
     </row>
-    <row r="324" spans="9:9">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I324" s="35"/>
     </row>
-    <row r="325" spans="9:9">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I325" s="35"/>
     </row>
-    <row r="326" spans="9:9">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I326" s="35"/>
     </row>
-    <row r="327" spans="9:9">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I327" s="35"/>
     </row>
-    <row r="328" spans="9:9">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I328" s="35"/>
     </row>
-    <row r="329" spans="9:9">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I329" s="35"/>
     </row>
-    <row r="330" spans="9:9">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I330" s="35"/>
     </row>
-    <row r="331" spans="9:9">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I331" s="35"/>
     </row>
-    <row r="332" spans="9:9">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I332" s="35"/>
     </row>
-    <row r="333" spans="9:9">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I333" s="35"/>
     </row>
-    <row r="334" spans="9:9">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I334" s="35"/>
     </row>
-    <row r="335" spans="9:9">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I335" s="35"/>
     </row>
-    <row r="336" spans="9:9">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I336" s="35"/>
     </row>
-    <row r="337" spans="9:9">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I337" s="35"/>
     </row>
-    <row r="338" spans="9:9">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I338" s="35"/>
     </row>
-    <row r="339" spans="9:9">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I339" s="35"/>
     </row>
-    <row r="340" spans="9:9">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I340" s="35"/>
     </row>
-    <row r="341" spans="9:9">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I341" s="35"/>
     </row>
-    <row r="342" spans="9:9">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I342" s="35"/>
     </row>
-    <row r="343" spans="9:9">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I343" s="35"/>
     </row>
-    <row r="344" spans="9:9">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I344" s="35"/>
     </row>
-    <row r="345" spans="9:9">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I345" s="35"/>
     </row>
-    <row r="346" spans="9:9">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I346" s="35"/>
     </row>
-    <row r="347" spans="9:9">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I347" s="35"/>
     </row>
-    <row r="348" spans="9:9">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I348" s="35"/>
     </row>
-    <row r="349" spans="9:9">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I349" s="35"/>
     </row>
-    <row r="350" spans="9:9">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I350" s="35"/>
     </row>
-    <row r="351" spans="9:9">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I351" s="35"/>
     </row>
-    <row r="352" spans="9:9">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I352" s="35"/>
     </row>
-    <row r="353" spans="9:9">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I353" s="35"/>
     </row>
-    <row r="354" spans="9:9">
+    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I354" s="35"/>
     </row>
-    <row r="355" spans="9:9">
+    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I355" s="35"/>
     </row>
-    <row r="356" spans="9:9">
+    <row r="356" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I356" s="35"/>
     </row>
-    <row r="357" spans="9:9">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I357" s="35"/>
     </row>
-    <row r="358" spans="9:9">
+    <row r="358" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I358" s="35"/>
     </row>
-    <row r="359" spans="9:9">
+    <row r="359" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I359" s="35"/>
     </row>
-    <row r="360" spans="9:9">
+    <row r="360" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I360" s="35"/>
     </row>
-    <row r="361" spans="9:9">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I361" s="35"/>
     </row>
-    <row r="362" spans="9:9">
+    <row r="362" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I362" s="35"/>
     </row>
-    <row r="363" spans="9:9">
+    <row r="363" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I363" s="35"/>
     </row>
-    <row r="364" spans="9:9">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I364" s="35"/>
     </row>
-    <row r="365" spans="9:9">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I365" s="35"/>
     </row>
-    <row r="366" spans="9:9">
+    <row r="366" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I366" s="35"/>
     </row>
-    <row r="367" spans="9:9">
+    <row r="367" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I367" s="35"/>
     </row>
-    <row r="368" spans="9:9">
+    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I368" s="35"/>
     </row>
-    <row r="369" spans="9:9">
+    <row r="369" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I369" s="35"/>
     </row>
-    <row r="370" spans="9:9">
+    <row r="370" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I370" s="35"/>
     </row>
-    <row r="371" spans="9:9">
+    <row r="371" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I371" s="35"/>
     </row>
-    <row r="372" spans="9:9">
+    <row r="372" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I372" s="35"/>
     </row>
-    <row r="373" spans="9:9">
+    <row r="373" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I373" s="35"/>
     </row>
-    <row r="374" spans="9:9">
+    <row r="374" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I374" s="35"/>
     </row>
-    <row r="375" spans="9:9">
+    <row r="375" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I375" s="35"/>
     </row>
-    <row r="376" spans="9:9">
+    <row r="376" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I376" s="35"/>
     </row>
-    <row r="377" spans="9:9">
+    <row r="377" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I377" s="35"/>
     </row>
-    <row r="378" spans="9:9">
+    <row r="378" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I378" s="35"/>
     </row>
-    <row r="379" spans="9:9">
+    <row r="379" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I379" s="35"/>
     </row>
-    <row r="380" spans="9:9">
+    <row r="380" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I380" s="35"/>
     </row>
-    <row r="381" spans="9:9">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I381" s="35"/>
     </row>
-    <row r="382" spans="9:9">
+    <row r="382" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I382" s="35"/>
     </row>
-    <row r="383" spans="9:9">
+    <row r="383" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I383" s="35"/>
     </row>
-    <row r="384" spans="9:9">
+    <row r="384" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I384" s="35"/>
     </row>
-    <row r="385" spans="9:9">
+    <row r="385" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I385" s="35"/>
     </row>
-    <row r="386" spans="9:9">
+    <row r="386" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I386" s="35"/>
     </row>
-    <row r="387" spans="9:9">
+    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I387" s="35"/>
     </row>
-    <row r="388" spans="9:9">
+    <row r="388" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I388" s="35"/>
     </row>
-    <row r="389" spans="9:9">
+    <row r="389" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I389" s="35"/>
     </row>
-    <row r="390" spans="9:9">
+    <row r="390" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I390" s="35"/>
     </row>
-    <row r="391" spans="9:9">
+    <row r="391" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I391" s="35"/>
     </row>
-    <row r="392" spans="9:9">
+    <row r="392" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I392" s="35"/>
     </row>
-    <row r="393" spans="9:9">
+    <row r="393" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I393" s="35"/>
     </row>
-    <row r="394" spans="9:9">
+    <row r="394" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I394" s="35"/>
     </row>
-    <row r="395" spans="9:9">
+    <row r="395" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I395" s="35"/>
     </row>
-    <row r="396" spans="9:9">
+    <row r="396" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I396" s="35"/>
     </row>
-    <row r="397" spans="9:9">
+    <row r="397" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I397" s="35"/>
     </row>
-    <row r="398" spans="9:9">
+    <row r="398" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I398" s="35"/>
     </row>
-    <row r="399" spans="9:9">
+    <row r="399" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I399" s="35"/>
     </row>
-    <row r="400" spans="9:9">
+    <row r="400" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I400" s="35"/>
     </row>
-    <row r="401" spans="9:9">
+    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I401" s="35"/>
     </row>
-    <row r="402" spans="9:9">
+    <row r="402" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I402" s="35"/>
     </row>
-    <row r="403" spans="9:9">
+    <row r="403" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I403" s="35"/>
     </row>
-    <row r="404" spans="9:9">
+    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I404" s="35"/>
     </row>
-    <row r="405" spans="9:9">
+    <row r="405" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I405" s="35"/>
     </row>
-    <row r="406" spans="9:9">
+    <row r="406" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I406" s="35"/>
     </row>
-    <row r="407" spans="9:9">
+    <row r="407" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I407" s="35"/>
     </row>
-    <row r="408" spans="9:9">
+    <row r="408" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I408" s="35"/>
     </row>
-    <row r="409" spans="9:9">
+    <row r="409" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I409" s="35"/>
     </row>
-    <row r="410" spans="9:9">
+    <row r="410" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I410" s="35"/>
     </row>
-    <row r="411" spans="9:9">
+    <row r="411" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I411" s="35"/>
     </row>
-    <row r="412" spans="9:9">
+    <row r="412" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I412" s="35"/>
     </row>
-    <row r="413" spans="9:9">
+    <row r="413" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I413" s="35"/>
     </row>
-    <row r="414" spans="9:9">
+    <row r="414" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I414" s="35"/>
     </row>
-    <row r="415" spans="9:9">
+    <row r="415" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I415" s="35"/>
     </row>
-    <row r="416" spans="9:9">
+    <row r="416" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I416" s="35"/>
     </row>
-    <row r="417" spans="9:9">
+    <row r="417" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I417" s="35"/>
     </row>
-    <row r="418" spans="9:9">
+    <row r="418" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I418" s="35"/>
     </row>
-    <row r="419" spans="9:9">
+    <row r="419" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I419" s="35"/>
     </row>
-    <row r="420" spans="9:9">
+    <row r="420" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I420" s="35"/>
     </row>
-    <row r="421" spans="9:9">
+    <row r="421" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I421" s="35"/>
     </row>
-    <row r="422" spans="9:9">
+    <row r="422" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I422" s="35"/>
     </row>
-    <row r="423" spans="9:9">
+    <row r="423" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I423" s="35"/>
     </row>
-    <row r="424" spans="9:9">
+    <row r="424" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I424" s="35"/>
     </row>
-    <row r="425" spans="9:9">
+    <row r="425" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I425" s="35"/>
     </row>
-    <row r="426" spans="9:9">
+    <row r="426" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I426" s="35"/>
     </row>
-    <row r="427" spans="9:9">
+    <row r="427" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I427" s="35"/>
     </row>
-    <row r="428" spans="9:9">
+    <row r="428" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I428" s="35"/>
     </row>
-    <row r="429" spans="9:9">
+    <row r="429" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I429" s="35"/>
     </row>
-    <row r="430" spans="9:9">
+    <row r="430" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I430" s="35"/>
     </row>
-    <row r="431" spans="9:9">
+    <row r="431" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I431" s="35"/>
     </row>
-    <row r="432" spans="9:9">
+    <row r="432" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I432" s="35"/>
     </row>
-    <row r="433" spans="9:9">
+    <row r="433" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I433" s="35"/>
     </row>
-    <row r="434" spans="9:9">
+    <row r="434" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I434" s="35"/>
     </row>
-    <row r="435" spans="9:9">
+    <row r="435" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I435" s="35"/>
     </row>
-    <row r="436" spans="9:9">
+    <row r="436" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I436" s="35"/>
     </row>
-    <row r="437" spans="9:9">
+    <row r="437" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I437" s="35"/>
     </row>
-    <row r="438" spans="9:9">
+    <row r="438" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I438" s="35"/>
     </row>
-    <row r="439" spans="9:9">
+    <row r="439" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I439" s="35"/>
     </row>
-    <row r="440" spans="9:9">
+    <row r="440" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I440" s="35"/>
     </row>
-    <row r="441" spans="9:9">
+    <row r="441" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I441" s="35"/>
     </row>
-    <row r="442" spans="9:9">
+    <row r="442" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I442" s="35"/>
     </row>
-    <row r="443" spans="9:9">
+    <row r="443" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I443" s="35"/>
     </row>
-    <row r="444" spans="9:9">
+    <row r="444" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I444" s="35"/>
     </row>
-    <row r="445" spans="9:9">
+    <row r="445" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I445" s="35"/>
     </row>
-    <row r="446" spans="9:9">
+    <row r="446" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I446" s="35"/>
     </row>
-    <row r="447" spans="9:9">
+    <row r="447" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I447" s="35"/>
     </row>
-    <row r="448" spans="9:9">
+    <row r="448" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I448" s="35"/>
     </row>
-    <row r="449" spans="9:9">
+    <row r="449" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I449" s="35"/>
     </row>
-    <row r="450" spans="9:9">
+    <row r="450" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I450" s="35"/>
     </row>
-    <row r="451" spans="9:9">
+    <row r="451" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I451" s="35"/>
     </row>
-    <row r="452" spans="9:9">
+    <row r="452" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I452" s="35"/>
     </row>
-    <row r="453" spans="9:9">
+    <row r="453" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I453" s="35"/>
     </row>
-    <row r="454" spans="9:9">
+    <row r="454" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I454" s="35"/>
     </row>
-    <row r="455" spans="9:9">
+    <row r="455" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I455" s="35"/>
     </row>
-    <row r="456" spans="9:9">
+    <row r="456" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I456" s="35"/>
     </row>
-    <row r="457" spans="9:9">
+    <row r="457" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I457" s="35"/>
     </row>
-    <row r="458" spans="9:9">
+    <row r="458" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I458" s="35"/>
     </row>
-    <row r="459" spans="9:9">
+    <row r="459" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I459" s="35"/>
     </row>
-    <row r="460" spans="9:9">
+    <row r="460" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I460" s="35"/>
     </row>
-    <row r="461" spans="9:9">
+    <row r="461" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I461" s="35"/>
     </row>
-    <row r="462" spans="9:9">
+    <row r="462" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I462" s="35"/>
     </row>
-    <row r="463" spans="9:9">
+    <row r="463" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I463" s="35"/>
     </row>
-    <row r="464" spans="9:9">
+    <row r="464" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I464" s="35"/>
     </row>
-    <row r="465" spans="9:9">
+    <row r="465" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I465" s="35"/>
     </row>
-    <row r="466" spans="9:9">
+    <row r="466" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I466" s="35"/>
     </row>
-    <row r="467" spans="9:9">
+    <row r="467" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I467" s="35"/>
     </row>
-    <row r="468" spans="9:9">
+    <row r="468" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I468" s="35"/>
     </row>
-    <row r="469" spans="9:9">
+    <row r="469" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I469" s="35"/>
     </row>
-    <row r="470" spans="9:9">
+    <row r="470" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I470" s="35"/>
     </row>
-    <row r="471" spans="9:9">
+    <row r="471" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I471" s="35"/>
     </row>
-    <row r="472" spans="9:9">
+    <row r="472" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I472" s="35"/>
     </row>
-    <row r="473" spans="9:9">
+    <row r="473" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I473" s="35"/>
     </row>
-    <row r="474" spans="9:9">
+    <row r="474" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I474" s="35"/>
     </row>
-    <row r="475" spans="9:9">
+    <row r="475" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I475" s="35"/>
     </row>
-    <row r="476" spans="9:9">
+    <row r="476" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I476" s="35"/>
     </row>
-    <row r="477" spans="9:9">
+    <row r="477" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I477" s="35"/>
     </row>
-    <row r="478" spans="9:9">
+    <row r="478" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I478" s="35"/>
     </row>
-    <row r="479" spans="9:9">
+    <row r="479" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I479" s="35"/>
     </row>
-    <row r="480" spans="9:9">
+    <row r="480" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I480" s="35"/>
     </row>
-    <row r="481" spans="9:9">
+    <row r="481" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I481" s="35"/>
     </row>
-    <row r="482" spans="9:9">
+    <row r="482" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I482" s="35"/>
     </row>
-    <row r="483" spans="9:9">
+    <row r="483" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I483" s="35"/>
     </row>
-    <row r="484" spans="9:9">
+    <row r="484" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I484" s="35"/>
     </row>
-    <row r="485" spans="9:9">
+    <row r="485" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I485" s="35"/>
     </row>
-    <row r="486" spans="9:9">
+    <row r="486" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I486" s="35"/>
     </row>
-    <row r="487" spans="9:9">
+    <row r="487" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I487" s="35"/>
     </row>
-    <row r="488" spans="9:9">
+    <row r="488" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I488" s="35"/>
     </row>
-    <row r="489" spans="9:9">
+    <row r="489" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I489" s="35"/>
     </row>
-    <row r="490" spans="9:9">
+    <row r="490" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I490" s="35"/>
     </row>
-    <row r="491" spans="9:9">
+    <row r="491" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I491" s="35"/>
     </row>
-    <row r="492" spans="9:9">
+    <row r="492" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I492" s="35"/>
     </row>
-    <row r="493" spans="9:9">
+    <row r="493" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I493" s="35"/>
     </row>
-    <row r="494" spans="9:9">
+    <row r="494" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I494" s="35"/>
     </row>
-    <row r="495" spans="9:9">
+    <row r="495" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I495" s="35"/>
     </row>
-    <row r="496" spans="9:9">
+    <row r="496" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I496" s="35"/>
     </row>
-    <row r="497" spans="9:9">
+    <row r="497" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I497" s="35"/>
     </row>
-    <row r="498" spans="9:9">
+    <row r="498" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I498" s="35"/>
     </row>
-    <row r="499" spans="9:9">
+    <row r="499" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I499" s="35"/>
     </row>
-    <row r="500" spans="9:9">
+    <row r="500" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I500" s="35"/>
     </row>
-    <row r="501" spans="9:9">
+    <row r="501" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I501" s="35"/>
     </row>
-    <row r="502" spans="9:9">
+    <row r="502" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I502" s="35"/>
     </row>
-    <row r="503" spans="9:9">
+    <row r="503" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I503" s="35"/>
     </row>
-    <row r="504" spans="9:9">
+    <row r="504" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I504" s="35"/>
     </row>
-    <row r="505" spans="9:9">
+    <row r="505" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I505" s="35"/>
     </row>
-    <row r="506" spans="9:9">
+    <row r="506" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I506" s="35"/>
     </row>
-    <row r="507" spans="9:9">
+    <row r="507" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I507" s="35"/>
     </row>
-    <row r="508" spans="9:9">
+    <row r="508" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I508" s="35"/>
     </row>
-    <row r="509" spans="9:9">
+    <row r="509" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I509" s="35"/>
     </row>
-    <row r="510" spans="9:9">
+    <row r="510" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I510" s="35"/>
     </row>
-    <row r="511" spans="9:9">
+    <row r="511" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I511" s="35"/>
     </row>
-    <row r="512" spans="9:9">
+    <row r="512" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I512" s="35"/>
     </row>
-    <row r="513" spans="9:9">
+    <row r="513" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I513" s="35"/>
     </row>
-    <row r="514" spans="9:9">
+    <row r="514" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I514" s="35"/>
     </row>
-    <row r="515" spans="9:9">
+    <row r="515" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I515" s="35"/>
     </row>
-    <row r="516" spans="9:9">
+    <row r="516" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I516" s="35"/>
     </row>
-    <row r="517" spans="9:9">
+    <row r="517" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I517" s="35"/>
     </row>
-    <row r="518" spans="9:9">
+    <row r="518" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I518" s="35"/>
     </row>
-    <row r="519" spans="9:9">
+    <row r="519" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I519" s="35"/>
     </row>
-    <row r="520" spans="9:9">
+    <row r="520" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I520" s="35"/>
     </row>
-    <row r="521" spans="9:9">
+    <row r="521" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I521" s="35"/>
     </row>
-    <row r="522" spans="9:9">
+    <row r="522" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I522" s="35"/>
     </row>
-    <row r="523" spans="9:9">
+    <row r="523" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I523" s="35"/>
     </row>
-    <row r="524" spans="9:9">
+    <row r="524" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I524" s="35"/>
     </row>
-    <row r="525" spans="9:9">
+    <row r="525" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I525" s="35"/>
     </row>
-    <row r="526" spans="9:9">
+    <row r="526" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I526" s="35"/>
     </row>
-    <row r="527" spans="9:9">
+    <row r="527" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I527" s="35"/>
     </row>
-    <row r="528" spans="9:9">
+    <row r="528" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I528" s="35"/>
     </row>
-    <row r="529" spans="9:9">
+    <row r="529" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I529" s="35"/>
     </row>
-    <row r="530" spans="9:9">
+    <row r="530" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I530" s="35"/>
     </row>
-    <row r="531" spans="9:9">
+    <row r="531" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I531" s="35"/>
     </row>
-    <row r="532" spans="9:9">
+    <row r="532" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I532" s="35"/>
     </row>
-    <row r="533" spans="9:9">
+    <row r="533" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I533" s="35"/>
     </row>
-    <row r="534" spans="9:9">
+    <row r="534" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I534" s="35"/>
     </row>
-    <row r="535" spans="9:9">
+    <row r="535" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I535" s="35"/>
     </row>
-    <row r="536" spans="9:9">
+    <row r="536" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I536" s="35"/>
     </row>
-    <row r="537" spans="9:9">
+    <row r="537" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I537" s="35"/>
     </row>
-    <row r="538" spans="9:9">
+    <row r="538" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I538" s="35"/>
     </row>
-    <row r="539" spans="9:9">
+    <row r="539" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I539" s="35"/>
     </row>
-    <row r="540" spans="9:9">
+    <row r="540" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I540" s="35"/>
     </row>
-    <row r="541" spans="9:9">
+    <row r="541" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I541" s="35"/>
     </row>
-    <row r="542" spans="9:9">
+    <row r="542" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I542" s="35"/>
     </row>
-    <row r="543" spans="9:9">
+    <row r="543" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I543" s="35"/>
     </row>
-    <row r="544" spans="9:9">
+    <row r="544" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I544" s="35"/>
     </row>
-    <row r="545" spans="9:9">
+    <row r="545" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I545" s="35"/>
     </row>
-    <row r="546" spans="9:9">
+    <row r="546" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I546" s="35"/>
     </row>
-    <row r="547" spans="9:9">
+    <row r="547" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I547" s="35"/>
     </row>
-    <row r="548" spans="9:9">
+    <row r="548" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I548" s="35"/>
     </row>
-    <row r="549" spans="9:9">
+    <row r="549" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I549" s="35"/>
     </row>
-    <row r="550" spans="9:9">
+    <row r="550" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I550" s="35"/>
     </row>
-    <row r="551" spans="9:9">
+    <row r="551" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I551" s="35"/>
     </row>
-    <row r="552" spans="9:9">
+    <row r="552" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I552" s="35"/>
     </row>
-    <row r="553" spans="9:9">
+    <row r="553" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I553" s="35"/>
     </row>
-    <row r="554" spans="9:9">
+    <row r="554" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I554" s="35"/>
     </row>
-    <row r="555" spans="9:9">
+    <row r="555" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I555" s="35"/>
     </row>
-    <row r="556" spans="9:9">
+    <row r="556" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I556" s="35"/>
     </row>
-    <row r="557" spans="9:9">
+    <row r="557" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I557" s="35"/>
     </row>
-    <row r="558" spans="9:9">
+    <row r="558" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I558" s="35"/>
     </row>
-    <row r="559" spans="9:9">
+    <row r="559" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I559" s="35"/>
     </row>
-    <row r="560" spans="9:9">
+    <row r="560" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I560" s="35"/>
     </row>
-    <row r="561" spans="9:9">
+    <row r="561" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I561" s="35"/>
     </row>
-    <row r="562" spans="9:9">
+    <row r="562" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I562" s="35"/>
     </row>
-    <row r="563" spans="9:9">
+    <row r="563" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I563" s="35"/>
     </row>
-    <row r="564" spans="9:9">
+    <row r="564" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I564" s="35"/>
     </row>
-    <row r="565" spans="9:9">
+    <row r="565" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I565" s="35"/>
     </row>
-    <row r="566" spans="9:9">
+    <row r="566" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I566" s="35"/>
     </row>
-    <row r="567" spans="9:9">
+    <row r="567" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I567" s="35"/>
     </row>
-    <row r="568" spans="9:9">
+    <row r="568" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I568" s="35"/>
     </row>
-    <row r="569" spans="9:9">
+    <row r="569" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I569" s="35"/>
     </row>
-    <row r="570" spans="9:9">
+    <row r="570" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I570" s="35"/>
     </row>
-    <row r="571" spans="9:9">
+    <row r="571" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I571" s="35"/>
     </row>
-    <row r="572" spans="9:9">
+    <row r="572" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I572" s="35"/>
     </row>
-    <row r="573" spans="9:9">
+    <row r="573" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I573" s="35"/>
     </row>
-    <row r="574" spans="9:9">
+    <row r="574" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I574" s="35"/>
     </row>
-    <row r="575" spans="9:9">
+    <row r="575" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I575" s="35"/>
     </row>
-    <row r="576" spans="9:9">
+    <row r="576" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I576" s="35"/>
     </row>
-    <row r="577" spans="9:9">
+    <row r="577" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I577" s="35"/>
     </row>
-    <row r="578" spans="9:9">
+    <row r="578" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I578" s="35"/>
     </row>
-    <row r="579" spans="9:9">
+    <row r="579" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I579" s="35"/>
     </row>
-    <row r="580" spans="9:9">
+    <row r="580" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I580" s="35"/>
     </row>
-    <row r="581" spans="9:9">
+    <row r="581" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I581" s="35"/>
     </row>
-    <row r="582" spans="9:9">
+    <row r="582" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I582" s="35"/>
     </row>
-    <row r="583" spans="9:9">
+    <row r="583" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I583" s="35"/>
     </row>
-    <row r="584" spans="9:9">
+    <row r="584" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I584" s="35"/>
     </row>
-    <row r="585" spans="9:9">
+    <row r="585" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I585" s="35"/>
     </row>
-    <row r="586" spans="9:9">
+    <row r="586" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I586" s="35"/>
     </row>
-    <row r="587" spans="9:9">
+    <row r="587" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I587" s="35"/>
     </row>
-    <row r="588" spans="9:9">
+    <row r="588" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I588" s="35"/>
     </row>
-    <row r="589" spans="9:9">
+    <row r="589" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I589" s="35"/>
     </row>
-    <row r="590" spans="9:9">
+    <row r="590" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I590" s="35"/>
     </row>
-    <row r="591" spans="9:9">
+    <row r="591" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I591" s="35"/>
     </row>
-    <row r="592" spans="9:9">
+    <row r="592" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I592" s="35"/>
     </row>
-    <row r="593" spans="9:9">
+    <row r="593" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I593" s="35"/>
     </row>
-    <row r="594" spans="9:9">
+    <row r="594" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I594" s="35"/>
     </row>
-    <row r="595" spans="9:9">
+    <row r="595" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I595" s="35"/>
     </row>
-    <row r="596" spans="9:9">
+    <row r="596" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I596" s="35"/>
     </row>
-    <row r="597" spans="9:9">
+    <row r="597" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I597" s="35"/>
     </row>
-    <row r="598" spans="9:9">
+    <row r="598" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I598" s="35"/>
     </row>
-    <row r="599" spans="9:9">
+    <row r="599" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I599" s="35"/>
     </row>
-    <row r="600" spans="9:9">
+    <row r="600" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I600" s="35"/>
     </row>
-    <row r="601" spans="9:9">
+    <row r="601" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I601" s="35"/>
     </row>
-    <row r="602" spans="9:9">
+    <row r="602" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I602" s="35"/>
     </row>
-    <row r="603" spans="9:9">
+    <row r="603" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I603" s="35"/>
     </row>
-    <row r="604" spans="9:9">
+    <row r="604" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I604" s="35"/>
     </row>
-    <row r="605" spans="9:9">
+    <row r="605" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I605" s="35"/>
     </row>
-    <row r="606" spans="9:9">
+    <row r="606" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I606" s="35"/>
     </row>
-    <row r="607" spans="9:9">
+    <row r="607" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I607" s="35"/>
     </row>
-    <row r="608" spans="9:9">
+    <row r="608" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I608" s="35"/>
     </row>
-    <row r="609" spans="9:9">
+    <row r="609" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I609" s="35"/>
     </row>
-    <row r="610" spans="9:9">
+    <row r="610" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I610" s="35"/>
     </row>
-    <row r="611" spans="9:9">
+    <row r="611" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I611" s="35"/>
     </row>
-    <row r="612" spans="9:9">
+    <row r="612" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I612" s="35"/>
     </row>
-    <row r="613" spans="9:9">
+    <row r="613" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I613" s="35"/>
     </row>
-    <row r="614" spans="9:9">
+    <row r="614" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I614" s="35"/>
     </row>
-    <row r="615" spans="9:9">
+    <row r="615" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I615" s="35"/>
     </row>
-    <row r="616" spans="9:9">
+    <row r="616" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I616" s="35"/>
     </row>
-    <row r="617" spans="9:9">
+    <row r="617" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I617" s="35"/>
     </row>
-    <row r="618" spans="9:9">
+    <row r="618" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I618" s="35"/>
     </row>
-    <row r="619" spans="9:9">
+    <row r="619" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I619" s="35"/>
     </row>
-    <row r="620" spans="9:9">
+    <row r="620" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I620" s="35"/>
     </row>
-    <row r="621" spans="9:9">
+    <row r="621" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I621" s="35"/>
     </row>
-    <row r="622" spans="9:9">
+    <row r="622" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I622" s="35"/>
     </row>
-    <row r="623" spans="9:9">
+    <row r="623" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I623" s="35"/>
     </row>
-    <row r="624" spans="9:9">
+    <row r="624" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I624" s="35"/>
     </row>
-    <row r="625" spans="9:9">
+    <row r="625" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I625" s="35"/>
     </row>
-    <row r="626" spans="9:9">
+    <row r="626" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I626" s="35"/>
     </row>
-    <row r="627" spans="9:9">
+    <row r="627" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I627" s="35"/>
     </row>
-    <row r="628" spans="9:9">
+    <row r="628" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I628" s="35"/>
     </row>
-    <row r="629" spans="9:9">
+    <row r="629" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I629" s="35"/>
     </row>
-    <row r="630" spans="9:9">
+    <row r="630" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I630" s="35"/>
     </row>
-    <row r="631" spans="9:9">
+    <row r="631" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I631" s="35"/>
     </row>
-    <row r="632" spans="9:9">
+    <row r="632" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I632" s="35"/>
     </row>
-    <row r="633" spans="9:9">
+    <row r="633" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I633" s="35"/>
     </row>
-    <row r="634" spans="9:9">
+    <row r="634" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I634" s="35"/>
     </row>
-    <row r="635" spans="9:9">
+    <row r="635" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I635" s="35"/>
     </row>
-    <row r="636" spans="9:9">
+    <row r="636" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I636" s="35"/>
     </row>
-    <row r="637" spans="9:9">
+    <row r="637" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I637" s="35"/>
     </row>
-    <row r="638" spans="9:9">
+    <row r="638" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I638" s="35"/>
     </row>
-    <row r="639" spans="9:9">
+    <row r="639" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I639" s="35"/>
     </row>
-    <row r="640" spans="9:9">
+    <row r="640" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I640" s="35"/>
     </row>
-    <row r="641" spans="9:9">
+    <row r="641" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I641" s="35"/>
     </row>
-    <row r="642" spans="9:9">
+    <row r="642" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I642" s="35"/>
     </row>
-    <row r="643" spans="9:9">
+    <row r="643" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I643" s="35"/>
     </row>
-    <row r="644" spans="9:9">
+    <row r="644" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I644" s="35"/>
     </row>
-    <row r="645" spans="9:9">
+    <row r="645" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I645" s="35"/>
     </row>
-    <row r="646" spans="9:9">
+    <row r="646" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I646" s="35"/>
     </row>
-    <row r="647" spans="9:9">
+    <row r="647" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I647" s="35"/>
     </row>
-    <row r="648" spans="9:9">
+    <row r="648" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I648" s="35"/>
     </row>
-    <row r="649" spans="9:9">
+    <row r="649" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I649" s="35"/>
     </row>
-    <row r="650" spans="9:9">
+    <row r="650" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I650" s="35"/>
     </row>
-    <row r="651" spans="9:9">
+    <row r="651" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I651" s="35"/>
     </row>
-    <row r="652" spans="9:9">
+    <row r="652" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I652" s="35"/>
     </row>
-    <row r="653" spans="9:9">
+    <row r="653" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I653" s="35"/>
     </row>
-    <row r="654" spans="9:9">
+    <row r="654" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I654" s="35"/>
     </row>
-    <row r="655" spans="9:9">
+    <row r="655" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I655" s="35"/>
     </row>
-    <row r="656" spans="9:9">
+    <row r="656" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I656" s="35"/>
     </row>
-    <row r="657" spans="9:9">
+    <row r="657" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I657" s="35"/>
     </row>
-    <row r="658" spans="9:9">
+    <row r="658" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I658" s="35"/>
     </row>
-    <row r="659" spans="9:9">
+    <row r="659" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I659" s="35"/>
     </row>
-    <row r="660" spans="9:9">
+    <row r="660" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I660" s="35"/>
     </row>
-    <row r="661" spans="9:9">
+    <row r="661" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I661" s="35"/>
     </row>
-    <row r="662" spans="9:9">
+    <row r="662" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I662" s="35"/>
     </row>
-    <row r="663" spans="9:9">
+    <row r="663" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I663" s="35"/>
     </row>
-    <row r="664" spans="9:9">
+    <row r="664" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I664" s="35"/>
     </row>
-    <row r="665" spans="9:9">
+    <row r="665" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I665" s="35"/>
     </row>
-    <row r="666" spans="9:9">
+    <row r="666" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I666" s="35"/>
     </row>
-    <row r="667" spans="9:9">
+    <row r="667" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I667" s="35"/>
     </row>
-    <row r="668" spans="9:9">
+    <row r="668" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I668" s="35"/>
     </row>
-    <row r="669" spans="9:9">
+    <row r="669" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I669" s="35"/>
     </row>
-    <row r="670" spans="9:9">
+    <row r="670" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I670" s="35"/>
     </row>
-    <row r="671" spans="9:9">
+    <row r="671" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I671" s="35"/>
     </row>
-    <row r="672" spans="9:9">
+    <row r="672" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I672" s="35"/>
     </row>
-    <row r="673" spans="9:9">
+    <row r="673" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I673" s="35"/>
     </row>
-    <row r="674" spans="9:9">
+    <row r="674" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I674" s="35"/>
     </row>
-    <row r="675" spans="9:9">
+    <row r="675" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I675" s="35"/>
     </row>
-    <row r="676" spans="9:9">
+    <row r="676" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I676" s="35"/>
     </row>
-    <row r="677" spans="9:9">
+    <row r="677" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I677" s="35"/>
     </row>
-    <row r="678" spans="9:9">
+    <row r="678" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I678" s="35"/>
     </row>
-    <row r="679" spans="9:9">
+    <row r="679" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I679" s="35"/>
     </row>
-    <row r="680" spans="9:9">
+    <row r="680" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I680" s="35"/>
     </row>
-    <row r="681" spans="9:9">
+    <row r="681" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I681" s="35"/>
     </row>
-    <row r="682" spans="9:9">
+    <row r="682" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I682" s="35"/>
     </row>
-    <row r="683" spans="9:9">
+    <row r="683" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I683" s="35"/>
     </row>
-    <row r="684" spans="9:9">
+    <row r="684" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I684" s="35"/>
     </row>
-    <row r="685" spans="9:9">
+    <row r="685" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I685" s="35"/>
     </row>
-    <row r="686" spans="9:9">
+    <row r="686" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I686" s="35"/>
     </row>
-    <row r="687" spans="9:9">
+    <row r="687" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I687" s="35"/>
     </row>
-    <row r="688" spans="9:9">
+    <row r="688" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I688" s="35"/>
     </row>
-    <row r="689" spans="9:9">
+    <row r="689" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I689" s="35"/>
     </row>
-    <row r="690" spans="9:9">
+    <row r="690" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I690" s="35"/>
     </row>
-    <row r="691" spans="9:9">
+    <row r="691" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I691" s="35"/>
     </row>
-    <row r="692" spans="9:9">
+    <row r="692" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I692" s="35"/>
     </row>
-    <row r="693" spans="9:9">
+    <row r="693" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I693" s="35"/>
     </row>
-    <row r="694" spans="9:9">
+    <row r="694" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I694" s="35"/>
     </row>
-    <row r="695" spans="9:9">
+    <row r="695" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I695" s="35"/>
     </row>
-    <row r="696" spans="9:9">
+    <row r="696" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I696" s="35"/>
     </row>
-    <row r="697" spans="9:9">
+    <row r="697" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I697" s="35"/>
     </row>
-    <row r="698" spans="9:9">
+    <row r="698" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I698" s="35"/>
     </row>
-    <row r="699" spans="9:9">
+    <row r="699" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I699" s="35"/>
     </row>
-    <row r="700" spans="9:9">
+    <row r="700" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I700" s="35"/>
     </row>
-    <row r="701" spans="9:9">
+    <row r="701" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I701" s="35"/>
     </row>
-    <row r="702" spans="9:9">
+    <row r="702" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I702" s="35"/>
     </row>
-    <row r="703" spans="9:9">
+    <row r="703" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I703" s="35"/>
     </row>
-    <row r="704" spans="9:9">
+    <row r="704" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I704" s="35"/>
     </row>
-    <row r="705" spans="9:9">
+    <row r="705" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I705" s="35"/>
     </row>
-    <row r="706" spans="9:9">
+    <row r="706" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I706" s="35"/>
     </row>
-    <row r="707" spans="9:9">
+    <row r="707" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I707" s="35"/>
     </row>
-    <row r="708" spans="9:9">
+    <row r="708" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I708" s="35"/>
     </row>
-    <row r="709" spans="9:9">
+    <row r="709" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I709" s="35"/>
     </row>
-    <row r="710" spans="9:9">
+    <row r="710" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I710" s="35"/>
     </row>
-    <row r="711" spans="9:9">
+    <row r="711" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I711" s="35"/>
     </row>
-    <row r="712" spans="9:9">
+    <row r="712" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I712" s="35"/>
     </row>
-    <row r="713" spans="9:9">
+    <row r="713" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I713" s="35"/>
     </row>
-    <row r="714" spans="9:9">
+    <row r="714" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I714" s="35"/>
     </row>
-    <row r="715" spans="9:9">
+    <row r="715" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I715" s="35"/>
     </row>
-    <row r="716" spans="9:9">
+    <row r="716" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I716" s="35"/>
     </row>
-    <row r="717" spans="9:9">
+    <row r="717" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I717" s="35"/>
     </row>
-    <row r="718" spans="9:9">
+    <row r="718" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I718" s="35"/>
     </row>
-    <row r="719" spans="9:9">
+    <row r="719" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I719" s="35"/>
     </row>
-    <row r="720" spans="9:9">
+    <row r="720" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I720" s="35"/>
     </row>
-    <row r="721" spans="9:9">
+    <row r="721" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I721" s="35"/>
     </row>
-    <row r="722" spans="9:9">
+    <row r="722" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I722" s="35"/>
     </row>
-    <row r="723" spans="9:9">
+    <row r="723" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I723" s="35"/>
     </row>
-    <row r="724" spans="9:9">
+    <row r="724" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I724" s="35"/>
     </row>
-    <row r="725" spans="9:9">
+    <row r="725" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I725" s="35"/>
     </row>
-    <row r="726" spans="9:9">
+    <row r="726" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I726" s="35"/>
     </row>
-    <row r="727" spans="9:9">
+    <row r="727" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I727" s="35"/>
     </row>
-    <row r="728" spans="9:9">
+    <row r="728" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I728" s="35"/>
     </row>
-    <row r="729" spans="9:9">
+    <row r="729" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I729" s="35"/>
     </row>
-    <row r="730" spans="9:9">
+    <row r="730" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I730" s="35"/>
     </row>
-    <row r="731" spans="9:9">
+    <row r="731" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I731" s="35"/>
     </row>
-    <row r="732" spans="9:9">
+    <row r="732" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I732" s="35"/>
     </row>
-    <row r="733" spans="9:9">
+    <row r="733" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I733" s="35"/>
     </row>
-    <row r="734" spans="9:9">
+    <row r="734" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I734" s="35"/>
     </row>
-    <row r="735" spans="9:9">
+    <row r="735" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I735" s="35"/>
     </row>
-    <row r="736" spans="9:9">
+    <row r="736" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I736" s="35"/>
     </row>
-    <row r="737" spans="9:9">
+    <row r="737" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I737" s="35"/>
     </row>
-    <row r="738" spans="9:9">
+    <row r="738" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I738" s="35"/>
     </row>
-    <row r="739" spans="9:9">
+    <row r="739" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I739" s="35"/>
     </row>
-    <row r="740" spans="9:9">
+    <row r="740" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I740" s="35"/>
     </row>
-    <row r="741" spans="9:9">
+    <row r="741" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I741" s="35"/>
     </row>
-    <row r="742" spans="9:9">
+    <row r="742" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I742" s="35"/>
     </row>
-    <row r="743" spans="9:9">
+    <row r="743" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I743" s="35"/>
     </row>
-    <row r="744" spans="9:9">
+    <row r="744" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I744" s="35"/>
     </row>
-    <row r="745" spans="9:9">
+    <row r="745" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I745" s="35"/>
     </row>
-    <row r="746" spans="9:9">
+    <row r="746" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I746" s="35"/>
     </row>
-    <row r="747" spans="9:9">
+    <row r="747" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I747" s="35"/>
     </row>
-    <row r="748" spans="9:9">
+    <row r="748" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I748" s="35"/>
     </row>
-    <row r="749" spans="9:9">
+    <row r="749" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I749" s="35"/>
     </row>
-    <row r="750" spans="9:9">
+    <row r="750" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I750" s="35"/>
     </row>
-    <row r="751" spans="9:9">
+    <row r="751" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I751" s="35"/>
     </row>
-    <row r="752" spans="9:9">
+    <row r="752" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I752" s="35"/>
     </row>
-    <row r="753" spans="9:9">
+    <row r="753" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I753" s="35"/>
     </row>
-    <row r="754" spans="9:9">
+    <row r="754" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I754" s="35"/>
     </row>
-    <row r="755" spans="9:9">
+    <row r="755" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I755" s="35"/>
     </row>
-    <row r="756" spans="9:9">
+    <row r="756" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I756" s="35"/>
     </row>
-    <row r="757" spans="9:9">
+    <row r="757" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I757" s="35"/>
     </row>
-    <row r="758" spans="9:9">
+    <row r="758" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I758" s="35"/>
     </row>
-    <row r="759" spans="9:9">
+    <row r="759" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I759" s="35"/>
     </row>
-    <row r="760" spans="9:9">
+    <row r="760" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I760" s="35"/>
     </row>
-    <row r="761" spans="9:9">
+    <row r="761" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I761" s="35"/>
     </row>
-    <row r="762" spans="9:9">
+    <row r="762" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I762" s="35"/>
     </row>
-    <row r="763" spans="9:9">
+    <row r="763" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I763" s="35"/>
     </row>
-    <row r="764" spans="9:9">
+    <row r="764" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I764" s="35"/>
     </row>
-    <row r="765" spans="9:9">
+    <row r="765" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I765" s="35"/>
     </row>
-    <row r="766" spans="9:9">
+    <row r="766" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I766" s="35"/>
     </row>
-    <row r="767" spans="9:9">
+    <row r="767" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I767" s="35"/>
     </row>
-    <row r="768" spans="9:9">
+    <row r="768" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I768" s="35"/>
     </row>
-    <row r="769" spans="9:9">
+    <row r="769" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I769" s="35"/>
     </row>
-    <row r="770" spans="9:9">
+    <row r="770" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I770" s="35"/>
     </row>
-    <row r="771" spans="9:9">
+    <row r="771" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I771" s="35"/>
     </row>
-    <row r="772" spans="9:9">
+    <row r="772" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I772" s="35"/>
     </row>
-    <row r="773" spans="9:9">
+    <row r="773" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I773" s="35"/>
     </row>
-    <row r="774" spans="9:9">
+    <row r="774" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I774" s="35"/>
     </row>
-    <row r="775" spans="9:9">
+    <row r="775" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I775" s="35"/>
     </row>
-    <row r="776" spans="9:9">
+    <row r="776" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I776" s="35"/>
     </row>
-    <row r="777" spans="9:9">
+    <row r="777" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I777" s="35"/>
     </row>
-    <row r="778" spans="9:9">
+    <row r="778" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I778" s="35"/>
     </row>
-    <row r="779" spans="9:9">
+    <row r="779" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I779" s="35"/>
     </row>
-    <row r="780" spans="9:9">
+    <row r="780" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I780" s="35"/>
     </row>
-    <row r="781" spans="9:9">
+    <row r="781" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I781" s="35"/>
     </row>
-    <row r="782" spans="9:9">
+    <row r="782" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I782" s="35"/>
     </row>
-    <row r="783" spans="9:9">
+    <row r="783" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I783" s="35"/>
     </row>
-    <row r="784" spans="9:9">
+    <row r="784" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I784" s="35"/>
     </row>
-    <row r="785" spans="9:9">
+    <row r="785" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I785" s="35"/>
     </row>
-    <row r="786" spans="9:9">
+    <row r="786" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I786" s="35"/>
     </row>
-    <row r="787" spans="9:9">
+    <row r="787" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I787" s="35"/>
     </row>
-    <row r="788" spans="9:9">
+    <row r="788" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I788" s="35"/>
     </row>
-    <row r="789" spans="9:9">
+    <row r="789" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I789" s="35"/>
     </row>
-    <row r="790" spans="9:9">
+    <row r="790" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I790" s="35"/>
     </row>
-    <row r="791" spans="9:9">
+    <row r="791" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I791" s="35"/>
     </row>
-    <row r="792" spans="9:9">
+    <row r="792" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I792" s="35"/>
     </row>
-    <row r="793" spans="9:9">
+    <row r="793" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I793" s="35"/>
     </row>
-    <row r="794" spans="9:9">
+    <row r="794" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I794" s="35"/>
     </row>
-    <row r="795" spans="9:9">
+    <row r="795" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I795" s="35"/>
     </row>
-    <row r="796" spans="9:9">
+    <row r="796" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I796" s="35"/>
     </row>
-    <row r="797" spans="9:9">
+    <row r="797" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I797" s="35"/>
     </row>
-    <row r="798" spans="9:9">
+    <row r="798" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I798" s="35"/>
     </row>
-    <row r="799" spans="9:9">
+    <row r="799" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I799" s="35"/>
     </row>
-    <row r="800" spans="9:9">
+    <row r="800" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I800" s="35"/>
     </row>
-    <row r="801" spans="9:9">
+    <row r="801" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I801" s="35"/>
     </row>
-    <row r="802" spans="9:9">
+    <row r="802" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I802" s="35"/>
     </row>
-    <row r="803" spans="9:9">
+    <row r="803" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I803" s="35"/>
     </row>
-    <row r="804" spans="9:9">
+    <row r="804" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I804" s="35"/>
     </row>
-    <row r="805" spans="9:9">
+    <row r="805" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I805" s="35"/>
     </row>
-    <row r="806" spans="9:9">
+    <row r="806" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I806" s="35"/>
     </row>
-    <row r="807" spans="9:9">
+    <row r="807" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I807" s="35"/>
     </row>
-    <row r="808" spans="9:9">
+    <row r="808" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I808" s="35"/>
     </row>
-    <row r="809" spans="9:9">
+    <row r="809" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I809" s="35"/>
     </row>
-    <row r="810" spans="9:9">
+    <row r="810" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I810" s="35"/>
     </row>
-    <row r="811" spans="9:9">
+    <row r="811" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I811" s="35"/>
     </row>
-    <row r="812" spans="9:9">
+    <row r="812" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I812" s="35"/>
     </row>
-    <row r="813" spans="9:9">
+    <row r="813" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I813" s="35"/>
     </row>
-    <row r="814" spans="9:9">
+    <row r="814" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I814" s="35"/>
     </row>
-    <row r="815" spans="9:9">
+    <row r="815" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I815" s="35"/>
     </row>
-    <row r="816" spans="9:9">
+    <row r="816" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I816" s="35"/>
     </row>
-    <row r="817" spans="9:9">
+    <row r="817" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I817" s="35"/>
     </row>
-    <row r="818" spans="9:9">
+    <row r="818" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I818" s="35"/>
     </row>
-    <row r="819" spans="9:9">
+    <row r="819" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I819" s="35"/>
     </row>
-    <row r="820" spans="9:9">
+    <row r="820" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I820" s="35"/>
     </row>
-    <row r="821" spans="9:9">
+    <row r="821" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I821" s="35"/>
     </row>
-    <row r="822" spans="9:9">
+    <row r="822" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I822" s="35"/>
     </row>
-    <row r="823" spans="9:9">
+    <row r="823" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I823" s="35"/>
     </row>
-    <row r="824" spans="9:9">
+    <row r="824" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I824" s="35"/>
     </row>
-    <row r="825" spans="9:9">
+    <row r="825" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I825" s="35"/>
     </row>
-    <row r="826" spans="9:9">
+    <row r="826" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I826" s="35"/>
     </row>
-    <row r="827" spans="9:9">
+    <row r="827" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I827" s="35"/>
     </row>
-    <row r="828" spans="9:9">
+    <row r="828" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I828" s="35"/>
     </row>
-    <row r="829" spans="9:9">
+    <row r="829" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I829" s="35"/>
     </row>
-    <row r="830" spans="9:9">
+    <row r="830" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I830" s="35"/>
     </row>
-    <row r="831" spans="9:9">
+    <row r="831" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I831" s="35"/>
     </row>
-    <row r="832" spans="9:9">
+    <row r="832" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I832" s="35"/>
     </row>
-    <row r="833" spans="9:9">
+    <row r="833" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I833" s="35"/>
     </row>
-    <row r="834" spans="9:9">
+    <row r="834" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I834" s="35"/>
     </row>
-    <row r="835" spans="9:9">
+    <row r="835" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I835" s="35"/>
     </row>
-    <row r="836" spans="9:9">
+    <row r="836" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I836" s="35"/>
     </row>
-    <row r="837" spans="9:9">
+    <row r="837" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I837" s="35"/>
     </row>
-    <row r="838" spans="9:9">
+    <row r="838" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I838" s="35"/>
     </row>
-    <row r="839" spans="9:9">
+    <row r="839" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I839" s="35"/>
     </row>
-    <row r="840" spans="9:9">
+    <row r="840" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I840" s="35"/>
     </row>
-    <row r="841" spans="9:9">
+    <row r="841" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I841" s="35"/>
     </row>
-    <row r="842" spans="9:9">
+    <row r="842" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I842" s="35"/>
     </row>
-    <row r="843" spans="9:9">
+    <row r="843" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I843" s="35"/>
     </row>
-    <row r="844" spans="9:9">
+    <row r="844" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I844" s="35"/>
     </row>
-    <row r="845" spans="9:9">
+    <row r="845" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I845" s="35"/>
     </row>
-    <row r="846" spans="9:9">
+    <row r="846" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I846" s="35"/>
     </row>
-    <row r="847" spans="9:9">
+    <row r="847" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I847" s="35"/>
     </row>
-    <row r="848" spans="9:9">
+    <row r="848" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I848" s="35"/>
     </row>
-    <row r="849" spans="9:9">
+    <row r="849" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I849" s="35"/>
     </row>
-    <row r="850" spans="9:9">
+    <row r="850" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I850" s="35"/>
     </row>
-    <row r="851" spans="9:9">
+    <row r="851" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I851" s="35"/>
     </row>
-    <row r="852" spans="9:9">
+    <row r="852" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I852" s="35"/>
     </row>
-    <row r="853" spans="9:9">
+    <row r="853" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I853" s="35"/>
     </row>
-    <row r="854" spans="9:9">
+    <row r="854" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I854" s="35"/>
     </row>
-    <row r="855" spans="9:9">
+    <row r="855" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I855" s="35"/>
     </row>
-    <row r="856" spans="9:9">
+    <row r="856" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I856" s="35"/>
     </row>
-    <row r="857" spans="9:9">
+    <row r="857" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I857" s="35"/>
     </row>
-    <row r="858" spans="9:9">
+    <row r="858" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I858" s="35"/>
     </row>
-    <row r="859" spans="9:9">
+    <row r="859" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I859" s="35"/>
     </row>
-    <row r="860" spans="9:9">
+    <row r="860" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I860" s="35"/>
     </row>
-    <row r="861" spans="9:9">
+    <row r="861" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I861" s="35"/>
     </row>
-    <row r="862" spans="9:9">
+    <row r="862" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I862" s="35"/>
     </row>
-    <row r="863" spans="9:9">
+    <row r="863" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I863" s="35"/>
     </row>
-    <row r="864" spans="9:9">
+    <row r="864" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I864" s="35"/>
     </row>
-    <row r="865" spans="9:9">
+    <row r="865" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I865" s="35"/>
     </row>
-    <row r="866" spans="9:9">
+    <row r="866" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I866" s="35"/>
     </row>
-    <row r="867" spans="9:9">
+    <row r="867" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I867" s="35"/>
     </row>
-    <row r="868" spans="9:9">
+    <row r="868" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I868" s="35"/>
     </row>
-    <row r="869" spans="9:9">
+    <row r="869" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I869" s="35"/>
     </row>
-    <row r="870" spans="9:9">
+    <row r="870" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I870" s="35"/>
     </row>
-    <row r="871" spans="9:9">
+    <row r="871" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I871" s="35"/>
     </row>
-    <row r="872" spans="9:9">
+    <row r="872" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I872" s="35"/>
     </row>
-    <row r="873" spans="9:9">
+    <row r="873" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I873" s="35"/>
     </row>
-    <row r="874" spans="9:9">
+    <row r="874" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I874" s="35"/>
     </row>
-    <row r="875" spans="9:9">
+    <row r="875" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I875" s="35"/>
     </row>
-    <row r="876" spans="9:9">
+    <row r="876" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I876" s="35"/>
     </row>
-    <row r="877" spans="9:9">
+    <row r="877" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I877" s="35"/>
     </row>
-    <row r="878" spans="9:9">
+    <row r="878" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I878" s="35"/>
     </row>
-    <row r="879" spans="9:9">
+    <row r="879" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I879" s="35"/>
     </row>
-    <row r="880" spans="9:9">
+    <row r="880" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I880" s="35"/>
     </row>
-    <row r="881" spans="9:9">
+    <row r="881" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I881" s="35"/>
     </row>
-    <row r="882" spans="9:9">
+    <row r="882" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I882" s="35"/>
     </row>
-    <row r="883" spans="9:9">
+    <row r="883" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I883" s="35"/>
     </row>
-    <row r="884" spans="9:9">
+    <row r="884" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I884" s="35"/>
     </row>
-    <row r="885" spans="9:9">
+    <row r="885" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I885" s="35"/>
     </row>
-    <row r="886" spans="9:9">
+    <row r="886" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I886" s="35"/>
     </row>
-    <row r="887" spans="9:9">
+    <row r="887" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I887" s="35"/>
     </row>
-    <row r="888" spans="9:9">
+    <row r="888" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I888" s="35"/>
     </row>
-    <row r="889" spans="9:9">
+    <row r="889" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I889" s="35"/>
     </row>
-    <row r="890" spans="9:9">
+    <row r="890" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I890" s="35"/>
     </row>
-    <row r="891" spans="9:9">
+    <row r="891" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I891" s="35"/>
     </row>
-    <row r="892" spans="9:9">
+    <row r="892" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I892" s="35"/>
     </row>
-    <row r="893" spans="9:9">
+    <row r="893" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I893" s="35"/>
     </row>
-    <row r="894" spans="9:9">
+    <row r="894" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I894" s="35"/>
     </row>
-    <row r="895" spans="9:9">
+    <row r="895" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I895" s="35"/>
     </row>
-    <row r="896" spans="9:9">
+    <row r="896" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I896" s="35"/>
     </row>
-    <row r="897" spans="9:9">
+    <row r="897" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I897" s="35"/>
     </row>
-    <row r="898" spans="9:9">
+    <row r="898" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I898" s="35"/>
     </row>
-    <row r="899" spans="9:9">
+    <row r="899" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I899" s="35"/>
     </row>
-    <row r="900" spans="9:9">
+    <row r="900" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I900" s="35"/>
     </row>
-    <row r="901" spans="9:9">
+    <row r="901" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I901" s="35"/>
     </row>
-    <row r="902" spans="9:9">
+    <row r="902" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I902" s="35"/>
     </row>
-    <row r="903" spans="9:9">
+    <row r="903" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I903" s="35"/>
     </row>
-    <row r="904" spans="9:9">
+    <row r="904" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I904" s="35"/>
     </row>
-    <row r="905" spans="9:9">
+    <row r="905" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I905" s="35"/>
     </row>
-    <row r="906" spans="9:9">
+    <row r="906" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I906" s="35"/>
     </row>
-    <row r="907" spans="9:9">
+    <row r="907" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I907" s="35"/>
     </row>
-    <row r="908" spans="9:9">
+    <row r="908" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I908" s="35"/>
     </row>
-    <row r="909" spans="9:9">
+    <row r="909" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I909" s="35"/>
     </row>
-    <row r="910" spans="9:9">
+    <row r="910" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I910" s="35"/>
     </row>
-    <row r="911" spans="9:9">
+    <row r="911" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I911" s="35"/>
     </row>
-    <row r="912" spans="9:9">
+    <row r="912" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I912" s="35"/>
     </row>
-    <row r="913" spans="9:9">
+    <row r="913" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I913" s="35"/>
     </row>
-    <row r="914" spans="9:9">
+    <row r="914" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I914" s="35"/>
     </row>
-    <row r="915" spans="9:9">
+    <row r="915" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I915" s="35"/>
     </row>
-    <row r="916" spans="9:9">
+    <row r="916" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I916" s="35"/>
     </row>
-    <row r="917" spans="9:9">
+    <row r="917" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I917" s="35"/>
     </row>
-    <row r="918" spans="9:9">
+    <row r="918" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I918" s="35"/>
     </row>
-    <row r="919" spans="9:9">
+    <row r="919" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I919" s="35"/>
     </row>
-    <row r="920" spans="9:9">
+    <row r="920" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I920" s="35"/>
     </row>
-    <row r="921" spans="9:9">
+    <row r="921" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I921" s="35"/>
     </row>
-    <row r="922" spans="9:9">
+    <row r="922" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I922" s="35"/>
     </row>
-    <row r="923" spans="9:9">
+    <row r="923" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I923" s="35"/>
     </row>
-    <row r="924" spans="9:9">
+    <row r="924" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I924" s="35"/>
     </row>
-    <row r="925" spans="9:9">
+    <row r="925" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I925" s="35"/>
     </row>
-    <row r="926" spans="9:9">
+    <row r="926" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I926" s="35"/>
     </row>
-    <row r="927" spans="9:9">
+    <row r="927" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I927" s="35"/>
     </row>
-    <row r="928" spans="9:9">
+    <row r="928" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I928" s="35"/>
     </row>
-    <row r="929" spans="9:9">
+    <row r="929" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I929" s="35"/>
     </row>
-    <row r="930" spans="9:9">
+    <row r="930" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I930" s="35"/>
     </row>
-    <row r="931" spans="9:9">
+    <row r="931" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I931" s="35"/>
     </row>
-    <row r="932" spans="9:9">
+    <row r="932" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I932" s="35"/>
     </row>
-    <row r="933" spans="9:9">
+    <row r="933" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I933" s="35"/>
     </row>
-    <row r="934" spans="9:9">
+    <row r="934" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I934" s="35"/>
     </row>
-    <row r="935" spans="9:9">
+    <row r="935" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I935" s="35"/>
     </row>
-    <row r="936" spans="9:9">
+    <row r="936" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I936" s="35"/>
     </row>
-    <row r="937" spans="9:9">
+    <row r="937" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I937" s="35"/>
     </row>
-    <row r="938" spans="9:9">
+    <row r="938" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I938" s="35"/>
     </row>
-    <row r="939" spans="9:9">
+    <row r="939" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I939" s="35"/>
     </row>
-    <row r="940" spans="9:9">
+    <row r="940" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I940" s="35"/>
     </row>
-    <row r="941" spans="9:9">
+    <row r="941" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I941" s="35"/>
     </row>
-    <row r="942" spans="9:9">
+    <row r="942" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I942" s="35"/>
     </row>
-    <row r="943" spans="9:9">
+    <row r="943" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I943" s="35"/>
     </row>
-    <row r="944" spans="9:9">
+    <row r="944" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I944" s="35"/>
     </row>
-    <row r="945" spans="9:9">
+    <row r="945" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I945" s="35"/>
     </row>
-    <row r="946" spans="9:9">
+    <row r="946" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I946" s="35"/>
     </row>
-    <row r="947" spans="9:9">
+    <row r="947" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I947" s="35"/>
     </row>
-    <row r="948" spans="9:9">
+    <row r="948" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I948" s="35"/>
     </row>
-    <row r="949" spans="9:9">
+    <row r="949" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I949" s="35"/>
     </row>
-    <row r="950" spans="9:9">
+    <row r="950" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I950" s="35"/>
     </row>
-    <row r="951" spans="9:9">
+    <row r="951" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I951" s="35"/>
     </row>
-    <row r="952" spans="9:9">
+    <row r="952" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I952" s="35"/>
     </row>
-    <row r="953" spans="9:9">
+    <row r="953" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I953" s="35"/>
     </row>
-    <row r="954" spans="9:9">
+    <row r="954" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I954" s="35"/>
     </row>
-    <row r="955" spans="9:9">
+    <row r="955" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I955" s="35"/>
     </row>
-    <row r="956" spans="9:9">
+    <row r="956" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I956" s="35"/>
     </row>
-    <row r="957" spans="9:9">
+    <row r="957" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I957" s="35"/>
     </row>
-    <row r="958" spans="9:9">
+    <row r="958" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I958" s="35"/>
     </row>
-    <row r="959" spans="9:9">
+    <row r="959" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I959" s="35"/>
     </row>
-    <row r="960" spans="9:9">
+    <row r="960" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I960" s="35"/>
     </row>
-    <row r="961" spans="9:9">
+    <row r="961" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I961" s="35"/>
     </row>
-    <row r="962" spans="9:9">
+    <row r="962" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I962" s="35"/>
     </row>
-    <row r="963" spans="9:9">
+    <row r="963" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I963" s="35"/>
     </row>
-    <row r="964" spans="9:9">
+    <row r="964" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I964" s="35"/>
     </row>
-    <row r="965" spans="9:9">
+    <row r="965" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I965" s="35"/>
     </row>
-    <row r="966" spans="9:9">
+    <row r="966" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I966" s="35"/>
     </row>
-    <row r="967" spans="9:9">
+    <row r="967" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I967" s="35"/>
     </row>
-    <row r="968" spans="9:9">
+    <row r="968" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I968" s="35"/>
     </row>
-    <row r="969" spans="9:9">
+    <row r="969" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I969" s="35"/>
     </row>
-    <row r="970" spans="9:9">
+    <row r="970" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I970" s="35"/>
     </row>
-    <row r="971" spans="9:9">
+    <row r="971" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I971" s="35"/>
     </row>
-    <row r="972" spans="9:9">
+    <row r="972" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I972" s="35"/>
     </row>
-    <row r="973" spans="9:9">
+    <row r="973" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I973" s="35"/>
     </row>
-    <row r="974" spans="9:9">
+    <row r="974" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I974" s="35"/>
     </row>
-    <row r="975" spans="9:9">
+    <row r="975" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I975" s="35"/>
     </row>
-    <row r="976" spans="9:9">
+    <row r="976" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I976" s="35"/>
     </row>
-    <row r="977" spans="9:9">
+    <row r="977" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I977" s="35"/>
     </row>
-    <row r="978" spans="9:9">
+    <row r="978" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I978" s="35"/>
     </row>
-    <row r="979" spans="9:9">
+    <row r="979" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I979" s="35"/>
     </row>
-    <row r="980" spans="9:9">
+    <row r="980" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I980" s="35"/>
     </row>
-    <row r="981" spans="9:9">
+    <row r="981" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I981" s="35"/>
     </row>
-    <row r="982" spans="9:9">
+    <row r="982" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I982" s="35"/>
     </row>
-    <row r="983" spans="9:9">
+    <row r="983" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I983" s="35"/>
     </row>
-    <row r="984" spans="9:9">
+    <row r="984" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I984" s="35"/>
     </row>
-    <row r="985" spans="9:9">
+    <row r="985" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I985" s="35"/>
     </row>
-    <row r="986" spans="9:9">
+    <row r="986" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I986" s="35"/>
     </row>
-    <row r="987" spans="9:9">
+    <row r="987" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I987" s="35"/>
     </row>
-    <row r="988" spans="9:9">
+    <row r="988" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I988" s="35"/>
     </row>
-    <row r="989" spans="9:9">
+    <row r="989" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I989" s="35"/>
     </row>
-    <row r="990" spans="9:9">
+    <row r="990" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I990" s="35"/>
     </row>
-    <row r="991" spans="9:9">
+    <row r="991" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I991" s="35"/>
     </row>
-    <row r="992" spans="9:9">
+    <row r="992" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I992" s="35"/>
     </row>
-    <row r="993" spans="9:9">
+    <row r="993" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I993" s="35"/>
     </row>
-    <row r="994" spans="9:9">
+    <row r="994" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I994" s="35"/>
     </row>
-    <row r="995" spans="9:9">
+    <row r="995" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I995" s="35"/>
     </row>
-    <row r="996" spans="9:9">
+    <row r="996" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I996" s="35"/>
     </row>
-    <row r="997" spans="9:9">
+    <row r="997" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I997" s="35"/>
     </row>
-    <row r="998" spans="9:9">
+    <row r="998" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I998" s="35"/>
     </row>
-    <row r="999" spans="9:9">
+    <row r="999" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I999" s="35"/>
     </row>
-    <row r="1000" spans="9:9">
+    <row r="1000" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I1000" s="35"/>
     </row>
   </sheetData>

--- a/DISEASE_INDEX/disease_index_0.xlsx
+++ b/DISEASE_INDEX/disease_index_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTTORATO\PROGETTI\PAULLILATINO\ROOTS_ANALYSIS\roots_olea\DISEASE_INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C09C45-F0C0-41E9-9B1E-67E3C576814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32116FF6-A9F6-41D8-99C3-3C07FAFF8D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,11 +608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,9 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="51" width="9.09765625" customWidth="1"/>
+    <col min="5" max="12" width="9.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
+    <col min="14" max="51" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
@@ -896,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>1</v>
@@ -1013,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>1</v>
@@ -1130,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
@@ -1598,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
@@ -1832,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
@@ -2066,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5">
         <v>1</v>
@@ -2183,10 +2185,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
         <v>1</v>
@@ -2300,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
@@ -2417,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -2768,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
         <v>1</v>
@@ -3119,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
         <v>1</v>
@@ -3236,10 +3238,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="9">
         <v>2</v>
@@ -3353,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="9">
         <v>1</v>
@@ -3587,10 +3589,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="9">
         <v>1</v>
@@ -3938,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="9">
         <v>1</v>
@@ -4172,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="11">
         <v>1</v>
@@ -4289,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="M32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="11">
         <v>1</v>
@@ -4640,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="11">
         <v>1</v>
@@ -4757,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="11">
         <v>1</v>
@@ -4991,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="13">
         <v>1</v>
@@ -5108,10 +5110,10 @@
         <v>1</v>
       </c>
       <c r="M39" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="13">
         <v>1</v>
@@ -5342,10 +5344,10 @@
         <v>1</v>
       </c>
       <c r="M41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="13">
         <v>1</v>
@@ -5459,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="13">
         <v>1</v>
@@ -5576,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="13">
         <v>1</v>
@@ -5693,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="15">
         <v>1</v>
@@ -5927,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="M46" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="15">
         <v>1</v>
@@ -6278,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="15">
         <v>1</v>
